--- a/Tratamento_Dados.xlsx
+++ b/Tratamento_Dados.xlsx
@@ -2,83 +2,33 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/clevison_santos_br_ey_com/Documents/Documents/Curso de excel/Curso de Python/Pandas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\TKinter\Primeiros Passos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{0D894208-B285-4711-A89C-AF6180CB6E22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7B7BAF85-E721-4BD7-B6DC-FD362A8F0211}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFFEE45A-CCE3-4BCD-BCF3-80F00A1B2B9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5E5B7CEB-022A-4BAD-96AB-66735DB400E2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F442FC5-21EA-478D-812C-024BC770E866}"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Produtos!$A$1:$C$22</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
-  <si>
-    <t>Vendedor</t>
-  </si>
-  <si>
-    <t>Leonardo Almeida</t>
-  </si>
-  <si>
-    <t>Eliane Moreira</t>
-  </si>
-  <si>
-    <t>Nicolas Pereira</t>
-  </si>
-  <si>
-    <t>Amanda Martins</t>
-  </si>
-  <si>
-    <t>Paulo Santos</t>
-  </si>
-  <si>
-    <t>Gabriel Cardoso</t>
-  </si>
-  <si>
-    <t>Total Vendas</t>
-  </si>
-  <si>
-    <t>Data Venda</t>
-  </si>
-  <si>
-    <t>Rodrigo Pires</t>
-  </si>
-  <si>
-    <t>Ismael Silveira</t>
-  </si>
-  <si>
-    <t>Rodolfo Martins</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,35 +36,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -122,41 +53,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,246 +372,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D2D276-7E82-46C4-BE67-2A15135CD44F}">
-  <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:C22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00CA074B-C563-4A60-A836-764B3B74A681}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="19.54296875" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="20.6328125" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="6">
-        <v>44927</v>
-      </c>
-      <c r="C2" s="4">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="6">
-        <v>44928</v>
-      </c>
-      <c r="C3" s="4">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6">
-        <v>44929</v>
-      </c>
-      <c r="C4" s="4">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6">
-        <v>44930</v>
-      </c>
-      <c r="C5" s="4">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="6">
-        <v>44931</v>
-      </c>
-      <c r="C6" s="4">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6">
-        <v>44932</v>
-      </c>
-      <c r="C7" s="4">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="6">
-        <v>44933</v>
-      </c>
-      <c r="C8" s="4">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="6">
-        <v>44934</v>
-      </c>
-      <c r="C9" s="4">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6">
-        <v>44935</v>
-      </c>
-      <c r="C10" s="4">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="6">
-        <v>44936</v>
-      </c>
-      <c r="C11" s="4">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="6">
-        <v>44937</v>
-      </c>
-      <c r="C12" s="4">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="6">
-        <v>44938</v>
-      </c>
-      <c r="C13" s="4">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="6">
-        <v>44939</v>
-      </c>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="6">
-        <v>44940</v>
-      </c>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="6">
-        <v>44941</v>
-      </c>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="6">
-        <v>44928</v>
-      </c>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="6">
-        <v>44929</v>
-      </c>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="6">
-        <v>44930</v>
-      </c>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="6">
-        <v>44931</v>
-      </c>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="6">
-        <v>44932</v>
-      </c>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="6">
-        <v>44933</v>
-      </c>
-      <c r="C22" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F4FB28-355B-4F70-B500-43BE64A90A12}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE7C259-0318-44F2-ABCB-09B12C125CF1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>